--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.108947</v>
+        <v>0.012541</v>
       </c>
       <c r="N2">
-        <v>0.217894</v>
+        <v>0.025082</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="Q2">
-        <v>0.166038387463</v>
+        <v>0.0355264395135</v>
       </c>
       <c r="R2">
-        <v>0.6641535498519999</v>
+        <v>0.142105758054</v>
       </c>
       <c r="S2">
-        <v>0.09030204154573296</v>
+        <v>0.01230091722418193</v>
       </c>
       <c r="T2">
-        <v>0.06866669168778029</v>
+        <v>0.009784314703037459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,22 +599,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.502875000000001</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>25.508625</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.5038138851085998</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.5746586476550658</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.108947</v>
+        <v>0.151929</v>
       </c>
       <c r="N3">
-        <v>0.217894</v>
+        <v>0.303858</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="Q3">
-        <v>0.9263627226250001</v>
+        <v>0.4303880415315</v>
       </c>
       <c r="R3">
-        <v>5.55817633575</v>
+        <v>1.721552166126</v>
       </c>
       <c r="S3">
-        <v>0.5038138851085998</v>
+        <v>0.1490204970060392</v>
       </c>
       <c r="T3">
-        <v>0.5746586476550658</v>
+        <v>0.1185329039564451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H4">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I4">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J4">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.108947</v>
+        <v>0.012541</v>
       </c>
       <c r="N4">
-        <v>0.217894</v>
+        <v>0.025082</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="Q4">
-        <v>0.04238695613566666</v>
+        <v>0.106634555375</v>
       </c>
       <c r="R4">
-        <v>0.254321736814</v>
+        <v>0.6398073322500001</v>
       </c>
       <c r="S4">
-        <v>0.02305267313447669</v>
+        <v>0.03692187725164169</v>
       </c>
       <c r="T4">
-        <v>0.02629426929239374</v>
+        <v>0.04405223527723646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.717841</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H5">
-        <v>9.435682</v>
+        <v>25.508625</v>
       </c>
       <c r="I5">
-        <v>0.2795423669681891</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J5">
-        <v>0.2125671712145694</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.108947</v>
+        <v>0.151929</v>
       </c>
       <c r="N5">
-        <v>0.217894</v>
+        <v>0.303858</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="Q5">
-        <v>0.513994623427</v>
+        <v>1.291833295875</v>
       </c>
       <c r="R5">
-        <v>2.055978493708</v>
+        <v>7.750999775250001</v>
       </c>
       <c r="S5">
-        <v>0.2795423669681891</v>
+        <v>0.4472931894557587</v>
       </c>
       <c r="T5">
-        <v>0.2125671712145694</v>
+        <v>0.5336745118758678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.295005</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H6">
-        <v>3.885015</v>
+        <v>0.546386</v>
       </c>
       <c r="I6">
-        <v>0.07673187013628475</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J6">
-        <v>0.08752167025935914</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.108947</v>
+        <v>0.012541</v>
       </c>
       <c r="N6">
-        <v>0.217894</v>
+        <v>0.025082</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.07625098802213169</v>
       </c>
       <c r="Q6">
-        <v>0.141086909735</v>
+        <v>0.002284075608666667</v>
       </c>
       <c r="R6">
-        <v>0.8465214584099999</v>
+        <v>0.013704453652</v>
       </c>
       <c r="S6">
-        <v>0.07673187013628475</v>
+        <v>0.0007908539493608729</v>
       </c>
       <c r="T6">
-        <v>0.08752167025935914</v>
+        <v>0.0009435837731037294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4482056666666667</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H7">
-        <v>1.344617</v>
+        <v>0.546386</v>
       </c>
       <c r="I7">
-        <v>0.02655716310671665</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J7">
-        <v>0.03029154989083149</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.108947</v>
+        <v>0.151929</v>
       </c>
       <c r="N7">
-        <v>0.217894</v>
+        <v>0.303858</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9237490119778683</v>
       </c>
       <c r="Q7">
-        <v>0.04883066276633333</v>
+        <v>0.02767062619800001</v>
       </c>
       <c r="R7">
-        <v>0.292983976598</v>
+        <v>0.166023757188</v>
       </c>
       <c r="S7">
-        <v>0.02655716310671665</v>
+        <v>0.009580866730918434</v>
       </c>
       <c r="T7">
-        <v>0.03029154989083149</v>
+        <v>0.01143112503499534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.6940955</v>
+      </c>
+      <c r="H8">
+        <v>11.388191</v>
+      </c>
+      <c r="I8">
+        <v>0.3242628913597822</v>
+      </c>
+      <c r="J8">
+        <v>0.257923057098854</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.012541</v>
+      </c>
+      <c r="N8">
+        <v>0.025082</v>
+      </c>
+      <c r="O8">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="P8">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="Q8">
+        <v>0.07140965166549999</v>
+      </c>
+      <c r="R8">
+        <v>0.285638606662</v>
+      </c>
+      <c r="S8">
+        <v>0.02472536584509654</v>
+      </c>
+      <c r="T8">
+        <v>0.01966688793747631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.6940955</v>
+      </c>
+      <c r="H9">
+        <v>11.388191</v>
+      </c>
+      <c r="I9">
+        <v>0.3242628913597822</v>
+      </c>
+      <c r="J9">
+        <v>0.257923057098854</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.151929</v>
+      </c>
+      <c r="N9">
+        <v>0.303858</v>
+      </c>
+      <c r="O9">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="P9">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="Q9">
+        <v>0.8650982352195</v>
+      </c>
+      <c r="R9">
+        <v>3.460392940878</v>
+      </c>
+      <c r="S9">
+        <v>0.2995375255146857</v>
+      </c>
+      <c r="T9">
+        <v>0.2382561691613777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.165052</v>
+      </c>
+      <c r="H10">
+        <v>0.495156</v>
+      </c>
+      <c r="I10">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J10">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.012541</v>
+      </c>
+      <c r="N10">
+        <v>0.025082</v>
+      </c>
+      <c r="O10">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="P10">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="Q10">
+        <v>0.002069917132</v>
+      </c>
+      <c r="R10">
+        <v>0.012419502792</v>
+      </c>
+      <c r="S10">
+        <v>0.000716702254724192</v>
+      </c>
+      <c r="T10">
+        <v>0.0008551118929748386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.165052</v>
+      </c>
+      <c r="H11">
+        <v>0.495156</v>
+      </c>
+      <c r="I11">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J11">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.151929</v>
+      </c>
+      <c r="N11">
+        <v>0.303858</v>
+      </c>
+      <c r="O11">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="P11">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="Q11">
+        <v>0.025076185308</v>
+      </c>
+      <c r="R11">
+        <v>0.150457111848</v>
+      </c>
+      <c r="S11">
+        <v>0.008682549785343415</v>
+      </c>
+      <c r="T11">
+        <v>0.01035932499703168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.183146</v>
+      </c>
+      <c r="H12">
+        <v>0.549438</v>
+      </c>
+      <c r="I12">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J12">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.012541</v>
+      </c>
+      <c r="N12">
+        <v>0.025082</v>
+      </c>
+      <c r="O12">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="P12">
+        <v>0.07625098802213169</v>
+      </c>
+      <c r="Q12">
+        <v>0.002296833986</v>
+      </c>
+      <c r="R12">
+        <v>0.013781003916</v>
+      </c>
+      <c r="S12">
+        <v>0.0007952714971264623</v>
+      </c>
+      <c r="T12">
+        <v>0.0009488544383028973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.183146</v>
+      </c>
+      <c r="H13">
+        <v>0.549438</v>
+      </c>
+      <c r="I13">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J13">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.151929</v>
+      </c>
+      <c r="N13">
+        <v>0.303858</v>
+      </c>
+      <c r="O13">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="P13">
+        <v>0.9237490119778683</v>
+      </c>
+      <c r="Q13">
+        <v>0.027825188634</v>
+      </c>
+      <c r="R13">
+        <v>0.166951131804</v>
+      </c>
+      <c r="S13">
+        <v>0.009634383485122902</v>
+      </c>
+      <c r="T13">
+        <v>0.01149497695215062</v>
       </c>
     </row>
   </sheetData>
